--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Pdgfa-Pdgfra.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Pdgfa-Pdgfra.xlsx
@@ -534,46 +534,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>13.08425366666667</v>
+        <v>1.425879333333333</v>
       </c>
       <c r="H2">
-        <v>39.252761</v>
+        <v>4.277638</v>
       </c>
       <c r="I2">
-        <v>0.4321946987699228</v>
+        <v>0.07659591414135564</v>
       </c>
       <c r="J2">
-        <v>0.4321946987699228</v>
+        <v>0.07659591414135564</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>1.155747666666667</v>
+        <v>0.2662156666666667</v>
       </c>
       <c r="N2">
-        <v>3.467243</v>
+        <v>0.7986470000000001</v>
       </c>
       <c r="O2">
-        <v>0.004246591903937912</v>
+        <v>0.0009813702709097034</v>
       </c>
       <c r="P2">
-        <v>0.004246591903937912</v>
+        <v>0.0009813702709097034</v>
       </c>
       <c r="Q2">
-        <v>15.12209564532478</v>
+        <v>0.3795914173095556</v>
       </c>
       <c r="R2">
-        <v>136.098860807923</v>
+        <v>3.416322755786</v>
       </c>
       <c r="S2">
-        <v>0.001835354508721239</v>
+        <v>7.516895301147857E-05</v>
       </c>
       <c r="T2">
-        <v>0.001835354508721239</v>
+        <v>7.516895301147857E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>13.08425366666667</v>
+        <v>1.425879333333333</v>
       </c>
       <c r="H3">
-        <v>39.252761</v>
+        <v>4.277638</v>
       </c>
       <c r="I3">
-        <v>0.4321946987699228</v>
+        <v>0.07659591414135564</v>
       </c>
       <c r="J3">
-        <v>0.4321946987699228</v>
+        <v>0.07659591414135564</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>812.3889770000001</v>
       </c>
       <c r="O3">
-        <v>0.9949935590256014</v>
+        <v>0.998256289001958</v>
       </c>
       <c r="P3">
-        <v>0.9949935590256014</v>
+        <v>0.998256289001958</v>
       </c>
       <c r="Q3">
-        <v>3543.167817023945</v>
+        <v>386.1228843107029</v>
       </c>
       <c r="R3">
-        <v>31888.5103532155</v>
+        <v>3475.105958796326</v>
       </c>
       <c r="S3">
-        <v>0.4300309415210832</v>
+        <v>0.07646235300346227</v>
       </c>
       <c r="T3">
-        <v>0.4300309415210832</v>
+        <v>0.07646235300346227</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>13.08425366666667</v>
+        <v>1.425879333333333</v>
       </c>
       <c r="H4">
-        <v>39.252761</v>
+        <v>4.277638</v>
       </c>
       <c r="I4">
-        <v>0.4321946987699228</v>
+        <v>0.07659591414135564</v>
       </c>
       <c r="J4">
-        <v>0.4321946987699228</v>
+        <v>0.07659591414135564</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.2067996666666666</v>
+        <v>0.2067996666666667</v>
       </c>
       <c r="N4">
-        <v>0.6203989999999999</v>
+        <v>0.620399</v>
       </c>
       <c r="O4">
-        <v>0.0007598490704606445</v>
+        <v>0.000762340727132399</v>
       </c>
       <c r="P4">
-        <v>0.0007598490704606445</v>
+        <v>0.0007623407271323989</v>
       </c>
       <c r="Q4">
-        <v>2.705819296848778</v>
+        <v>0.2948713708402222</v>
       </c>
       <c r="R4">
-        <v>24.352373671639</v>
+        <v>2.653842337562</v>
       </c>
       <c r="S4">
-        <v>0.0003284027401183441</v>
+        <v>5.839218488189186E-05</v>
       </c>
       <c r="T4">
-        <v>0.0003284027401183441</v>
+        <v>5.839218488189185E-05</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,40 +726,40 @@
         <v>2.113049</v>
       </c>
       <c r="I5">
-        <v>0.0232658430330821</v>
+        <v>0.03783651626913671</v>
       </c>
       <c r="J5">
-        <v>0.0232658430330821</v>
+        <v>0.03783651626913671</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>1.155747666666667</v>
+        <v>0.2662156666666667</v>
       </c>
       <c r="N5">
-        <v>3.467243</v>
+        <v>0.7986470000000001</v>
       </c>
       <c r="O5">
-        <v>0.004246591903937912</v>
+        <v>0.0009813702709097034</v>
       </c>
       <c r="P5">
-        <v>0.004246591903937912</v>
+        <v>0.0009813702709097034</v>
       </c>
       <c r="Q5">
-        <v>0.8140504837674445</v>
+        <v>0.1875089160781112</v>
       </c>
       <c r="R5">
-        <v>7.326454353907001</v>
+        <v>1.687580244703</v>
       </c>
       <c r="S5">
-        <v>9.880054066257672E-05</v>
+        <v>3.71316322213221E-05</v>
       </c>
       <c r="T5">
-        <v>9.880054066257672E-05</v>
+        <v>3.713163222132209E-05</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>2.113049</v>
       </c>
       <c r="I6">
-        <v>0.0232658430330821</v>
+        <v>0.03783651626913671</v>
       </c>
       <c r="J6">
-        <v>0.0232658430330821</v>
+        <v>0.03783651626913671</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>812.3889770000001</v>
       </c>
       <c r="O6">
-        <v>0.9949935590256014</v>
+        <v>0.998256289001958</v>
       </c>
       <c r="P6">
-        <v>0.9949935590256014</v>
+        <v>0.998256289001958</v>
       </c>
       <c r="Q6">
         <v>190.7353017178748</v>
@@ -818,10 +818,10 @@
         <v>1716.617715460873</v>
       </c>
       <c r="S6">
-        <v>0.02314936396321735</v>
+        <v>0.03777054031959062</v>
       </c>
       <c r="T6">
-        <v>0.02314936396321735</v>
+        <v>0.03777054031959062</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>2.113049</v>
       </c>
       <c r="I7">
-        <v>0.0232658430330821</v>
+        <v>0.03783651626913671</v>
       </c>
       <c r="J7">
-        <v>0.0232658430330821</v>
+        <v>0.03783651626913671</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.2067996666666666</v>
+        <v>0.2067996666666667</v>
       </c>
       <c r="N7">
-        <v>0.6203989999999999</v>
+        <v>0.620399</v>
       </c>
       <c r="O7">
-        <v>0.0007598490704606445</v>
+        <v>0.000762340727132399</v>
       </c>
       <c r="P7">
-        <v>0.0007598490704606445</v>
+        <v>0.0007623407271323989</v>
       </c>
       <c r="Q7">
-        <v>0.1456592762834444</v>
+        <v>0.1456592762834445</v>
       </c>
       <c r="R7">
         <v>1.310933486551</v>
       </c>
       <c r="S7">
-        <v>1.767852920217069E-05</v>
+        <v>2.884431732477053E-05</v>
       </c>
       <c r="T7">
-        <v>1.767852920217069E-05</v>
+        <v>2.884431732477052E-05</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,46 +906,46 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>16.48537666666667</v>
+        <v>16.48537666666666</v>
       </c>
       <c r="H8">
-        <v>49.45613</v>
+        <v>49.45612999999999</v>
       </c>
       <c r="I8">
-        <v>0.5445394581969951</v>
+        <v>0.8855675695895077</v>
       </c>
       <c r="J8">
-        <v>0.5445394581969951</v>
+        <v>0.8855675695895077</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L8">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>1.155747666666667</v>
+        <v>0.2662156666666667</v>
       </c>
       <c r="N8">
-        <v>3.467243</v>
+        <v>0.7986470000000001</v>
       </c>
       <c r="O8">
-        <v>0.004246591903937912</v>
+        <v>0.0009813702709097034</v>
       </c>
       <c r="P8">
-        <v>0.004246591903937912</v>
+        <v>0.0009813702709097034</v>
       </c>
       <c r="Q8">
-        <v>19.05293561662111</v>
+        <v>4.388665539567778</v>
       </c>
       <c r="R8">
-        <v>171.47642054959</v>
+        <v>39.49798985611</v>
       </c>
       <c r="S8">
-        <v>0.002312436854554097</v>
+        <v>0.0008690696856769027</v>
       </c>
       <c r="T8">
-        <v>0.002312436854554097</v>
+        <v>0.0008690696856769027</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>16.48537666666667</v>
+        <v>16.48537666666666</v>
       </c>
       <c r="H9">
-        <v>49.45613</v>
+        <v>49.45612999999999</v>
       </c>
       <c r="I9">
-        <v>0.5445394581969951</v>
+        <v>0.8855675695895077</v>
       </c>
       <c r="J9">
-        <v>0.5445394581969951</v>
+        <v>0.8855675695895077</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>812.3889770000001</v>
       </c>
       <c r="O9">
-        <v>0.9949935590256014</v>
+        <v>0.998256289001958</v>
       </c>
       <c r="P9">
-        <v>0.9949935590256014</v>
+        <v>0.998256289001958</v>
       </c>
       <c r="Q9">
-        <v>4464.179428564335</v>
+        <v>4464.179428564334</v>
       </c>
       <c r="R9">
-        <v>40177.61485707902</v>
+        <v>40177.61485707901</v>
       </c>
       <c r="S9">
-        <v>0.5418132535413008</v>
+        <v>0.8840233956789051</v>
       </c>
       <c r="T9">
-        <v>0.5418132535413008</v>
+        <v>0.8840233956789051</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>16.48537666666667</v>
+        <v>16.48537666666666</v>
       </c>
       <c r="H10">
-        <v>49.45613</v>
+        <v>49.45612999999999</v>
       </c>
       <c r="I10">
-        <v>0.5445394581969951</v>
+        <v>0.8855675695895077</v>
       </c>
       <c r="J10">
-        <v>0.5445394581969951</v>
+        <v>0.8855675695895077</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.2067996666666666</v>
+        <v>0.2067996666666667</v>
       </c>
       <c r="N10">
-        <v>0.6203989999999999</v>
+        <v>0.620399</v>
       </c>
       <c r="O10">
-        <v>0.0007598490704606445</v>
+        <v>0.000762340727132399</v>
       </c>
       <c r="P10">
-        <v>0.0007598490704606445</v>
+        <v>0.0007623407271323989</v>
       </c>
       <c r="Q10">
-        <v>3.40917039954111</v>
+        <v>3.409170399541111</v>
       </c>
       <c r="R10">
         <v>30.68253359587</v>
       </c>
       <c r="S10">
-        <v>0.0004137678011401298</v>
+        <v>0.0006751042249257366</v>
       </c>
       <c r="T10">
-        <v>0.0004137678011401298</v>
+        <v>0.0006751042249257365</v>
       </c>
     </row>
   </sheetData>
